--- a/room.xlsx
+++ b/room.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DE6C2-96D8-4413-A6C6-840C31C58460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAA653-FE9B-44E9-A7D7-A2D299081F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -404,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>

--- a/room.xlsx
+++ b/room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad\OneDrive\Desktop\Netwaciila\Projets\EmploiDuTemps\AlgorithmeGénetique\Autres\calendar_proble_solving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddha\Desktop\calendar_proble_solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DAA653-FE9B-44E9-A7D7-A2D299081F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CECF678-7B71-4343-B0B8-BFF39C740B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>id_room</t>
   </si>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,12 +516,138 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>4</v>
       </c>
     </row>
